--- a/Hardware/PPG-Module/CouchProtato-PPG-MODULE-BOM.xlsx
+++ b/Hardware/PPG-Module/CouchProtato-PPG-MODULE-BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bridget Eilers\Documents\CouchProtato\Hardware\PPG-Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6303DA-51DA-4DEC-8E78-575FA673935C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A99CC1-106E-4C01-A597-8CEDCD81EDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A732FC15-C42D-A34D-8ECA-6CDB505EE07F}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{A732FC15-C42D-A34D-8ECA-6CDB505EE07F}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6B88A2FF-ACA5-2749-9C3A-B898F216F01C}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{6B88A2FF-ACA5-2749-9C3A-B898F216F01C}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{5E94D935-79D1-BE4B-895F-3EF2DDB6B177}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{5E94D935-79D1-BE4B-895F-3EF2DDB6B177}">
       <text>
         <r>
           <rPr>
@@ -437,7 +437,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>BOM #</t>
   </si>
@@ -611,6 +611,24 @@
   </si>
   <si>
     <t>Design Name -- Revision Code / Designer</t>
+  </si>
+  <si>
+    <t>PPG Module</t>
+  </si>
+  <si>
+    <t>Chip LED</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Photodiode</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>NEW LIST BELOW (outline above)</t>
   </si>
 </sst>
 </file>
@@ -621,7 +639,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,6 +712,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -864,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -893,6 +919,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,59 +1349,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="6">
-        <f>SUM(M3:M77)</f>
+      <c r="N1" s="6">
+        <f>SUM(N3:N77)</f>
         <v>2.48</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="6">
-        <f>SUM(O3:O77)</f>
+      <c r="P1" s="6">
+        <f>SUM(P3:P77)</f>
         <v>1.1271</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1385,43 +1413,46 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>1</f>
         <v>1</v>
@@ -1432,46 +1463,47 @@
       <c r="C3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>0.38</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="0">K3*L3</f>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N8" si="0">L3*M3</f>
         <v>0.38</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>0.1391</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O7" si="1">L3*N3</f>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P7" si="1">M3*O3</f>
         <v>0.1391</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1481,46 +1513,47 @@
       <c r="C4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>0.89</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>1</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>0.46</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1530,44 +1563,45 @@
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>1</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>0.3982</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <f t="shared" si="1"/>
         <v>0.3982</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1577,46 +1611,47 @@
       <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>0.26</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <f t="shared" si="1"/>
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1626,46 +1661,47 @@
       <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>0.1</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>3</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <f t="shared" si="1"/>
         <v>2.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1675,52 +1711,91 @@
       <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>0.1</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="O8" s="10">
-        <f>L8*N8</f>
+      <c r="P8" s="10">
+        <f>M8*O8</f>
         <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
